--- a/genetic_ncDrone/Resultados/No-Fly-Zones/noflyzones.xlsx
+++ b/genetic_ncDrone/Resultados/No-Fly-Zones/noflyzones.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
   <si>
     <t xml:space="preserve">Estrategia</t>
   </si>
@@ -91,58 +91,67 @@
     <t xml:space="preserve">Time Strategy </t>
   </si>
   <si>
-    <t xml:space="preserve">Threshold  = 127</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quadrant  type A + Time</t>
   </si>
   <si>
+    <t xml:space="preserve">Threshold  = 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaporation Strategy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 1; Evap factor = 0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaporation + Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 47 Evap factor = 0.69; Threshold  = 190 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadrant  type A + Evap + Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 1; Evap factor = 0.83;Threshold = 881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadrant  type A + Evaporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 1; Evap factor = 0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadrant Strategy type B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Threshold  = 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Evaporation Strategy </t>
+    <t xml:space="preserve">Quadrant  type B + Time</t>
   </si>
   <si>
     <t xml:space="preserve">Evap time = 1; Evap factor = 0.32</t>
   </si>
   <si>
-    <t xml:space="preserve">Evaporation + Time </t>
-  </si>
-  <si>
     <t xml:space="preserve">Evap time = 1; Evap factor = 0.32; Threshold  = 4 </t>
   </si>
   <si>
+    <t xml:space="preserve">Quadrant  type B + Evap + Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 5; Evap factor = 0.32;Threshold =3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadrant  type B + Evaporation 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 5; Evap factor = 0.32</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quadrant  type A + Evaporation 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Evap time = 5; Evap factor = 0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type A + Evap + Time</t>
-  </si>
-  <si>
     <t xml:space="preserve">Evap time = 5; Evap factor = 0.32;Threshold = 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type A + Evaporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 1; Evap factor = 0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant Strategy type B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type B + Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type B + Evap + Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 5; Evap factor = 0.32;Threshold =3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type B + Evaporation 2 </t>
   </si>
   <si>
     <t xml:space="preserve">Quadrant  type B + Evaporation</t>
@@ -339,7 +348,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -468,11 +477,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="63694593"/>
-        <c:axId val="70825718"/>
+        <c:axId val="9136956"/>
+        <c:axId val="12370465"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63694593"/>
+        <c:axId val="9136956"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,14 +509,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70825718"/>
+        <c:crossAx val="12370465"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70825718"/>
+        <c:axId val="12370465"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +553,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63694593"/>
+        <c:crossAx val="9136956"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -591,7 +600,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -707,11 +716,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="86069480"/>
-        <c:axId val="39028071"/>
+        <c:axId val="28868455"/>
+        <c:axId val="31290913"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86069480"/>
+        <c:axId val="28868455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,14 +748,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39028071"/>
+        <c:crossAx val="31290913"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39028071"/>
+        <c:axId val="31290913"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +792,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86069480"/>
+        <c:crossAx val="28868455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -837,14 +846,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>686880</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>127080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>5685120</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:colOff>5684400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -852,8 +861,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10039680" y="4333320"/>
-        <a:ext cx="5757120" cy="3230280"/>
+        <a:off x="10039680" y="4158000"/>
+        <a:ext cx="5756400" cy="3229920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -877,9 +886,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1144440</xdr:colOff>
+      <xdr:colOff>1143720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -888,7 +897,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="841320" y="1666800"/>
-        <a:ext cx="5754960" cy="3231720"/>
+        <a:ext cx="5754240" cy="3231000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -908,8 +917,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1211,94 +1220,141 @@
       <c r="G14" s="5" t="n">
         <v>189.427173401781</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>22</v>
+      <c r="I14" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>679.608116495474</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.11454436583149</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.55062179188415</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.040928049699879</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8334.23333333333</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>148.304366279187</v>
+      </c>
+      <c r="I15" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="I15" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>648.337687567612</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>6.4781638422029</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.27764742748641</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.123569988029332</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>17770.1666666667</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>278.354163306183</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="I16" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>650.346910452914</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>6.19438959084707</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1.0108112259323</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.132224213958532</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>14261.7333333333</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>240.57501996235</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="I17" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>638.50310258498</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.2437730304619</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.06275910028927</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.0758468939140722</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>17025.5</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>188.301436623523</v>
+      </c>
+      <c r="I18" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="I18" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>638.298234078137</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>3.67786802700931</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>2.07292242385638</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.127708290211723</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>17080.1333333333</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>168.844089137825</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="I19" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="I20" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1379,7 +1435,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1424,12 +1480,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="I6" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1438,12 +1494,12 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="I7" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1452,7 +1508,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="I8" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,7 +1541,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1494,12 +1550,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="I11" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1508,7 +1564,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="I12" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,12 +1592,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="I14" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1550,12 +1606,12 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="I15" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1564,12 +1620,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="I16" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1578,12 +1634,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="I17" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1592,7 +1648,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="I18" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1724,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1713,12 +1769,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="I6" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1727,12 +1783,12 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="I7" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1741,7 +1797,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="I8" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,7 +1830,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1783,12 +1839,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="I11" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1797,7 +1853,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="I12" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,12 +1881,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="I14" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1839,12 +1895,12 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="I15" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1853,12 +1909,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="I16" s="0" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1867,12 +1923,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="I17" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1881,7 +1937,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="I18" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1919,7 +1975,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2103,7 +2159,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>737.610560432191</v>
@@ -2126,7 +2182,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>719.604632247391</v>
@@ -2147,7 +2203,7 @@
         <v>199.506370710369</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2199,12 +2255,12 @@
         <v>1239.61434306813</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>612.565931392732</v>
@@ -2225,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/genetic_ncDrone/Resultados/No-Fly-Zones/noflyzones.xlsx
+++ b/genetic_ncDrone/Resultados/No-Fly-Zones/noflyzones.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="10k" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="20k" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="30k" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Planilha2" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="mapa 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="mapa 2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="mapa 3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
   <si>
     <t xml:space="preserve">Estrategia</t>
   </si>
@@ -91,6 +90,9 @@
     <t xml:space="preserve">Time Strategy </t>
   </si>
   <si>
+    <t xml:space="preserve">Threshold  = 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quadrant  type A + Time</t>
   </si>
   <si>
@@ -121,43 +123,34 @@
     <t xml:space="preserve">Evap time = 1; Evap factor = 0.83</t>
   </si>
   <si>
-    <t xml:space="preserve">Quadrant Strategy type B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Threshold  = 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type B + Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 1; Evap factor = 0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 1; Evap factor = 0.32; Threshold  = 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type B + Evap + Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 5; Evap factor = 0.32;Threshold =3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type B + Evaporation 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 5; Evap factor = 0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type A + Evaporation 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 5; Evap factor = 0.32;Threshold = 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type B + Evaporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numero Drones</t>
+    <t xml:space="preserve">Threshold  = 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 1; Evap factor = 0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 15  Evap factor = 0.6; Threshold  = 705 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 2; Evap factor = 0.47;Threshold =315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 2; Evap factor = 0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threshold  = 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 1; Evap factor = 0.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 2  Evap factor = 0.80; Threshold  = 898 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 2; Evap factor = 0.90;Threshold =446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 1; Evap factor = 0.70</t>
   </si>
 </sst>
 </file>
@@ -247,7 +240,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,10 +263,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -348,7 +337,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -363,7 +352,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>10k!$F$1</c:f>
+              <c:f>'mapa 1'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -393,7 +382,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>10k!$A$2:$A$12</c:f>
+              <c:f>'mapa 1'!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -434,7 +423,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>10k!$F$2:$F$12</c:f>
+              <c:f>'mapa 1'!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -477,11 +466,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="9136956"/>
-        <c:axId val="12370465"/>
+        <c:axId val="85324428"/>
+        <c:axId val="97726930"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="9136956"/>
+        <c:axId val="85324428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,14 +498,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12370465"/>
+        <c:crossAx val="97726930"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12370465"/>
+        <c:axId val="97726930"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,248 +542,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9136956"/>
+        <c:crossAx val="85324428"/>
         <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha2!$B$1:$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Media Qmi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha2!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha2!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>750.126609115248</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>613.897109257333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>515.3024135604</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>442.264149117117</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>389.43686828644</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>348.733413416514</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>314.528723367342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="28868455"/>
-        <c:axId val="31290913"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="28868455"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="31290913"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="31290913"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="28868455"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -851,9 +600,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>5684400</xdr:colOff>
+      <xdr:colOff>5682600</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -862,42 +611,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10039680" y="4158000"/>
-        <a:ext cx="5756400" cy="3229920"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>841320</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1143720</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="841320" y="1666800"/>
-        <a:ext cx="5754240" cy="3231000"/>
+        <a:ext cx="5754600" cy="3228120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -917,8 +631,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="B19:G19 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1203,30 +917,30 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>686.134000917803</v>
+        <v>681.973459786412</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.96750459694185</v>
+        <v>8.2072317102137</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.830768405311758</v>
+        <v>0.792002141316589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.123132610589202</v>
+        <v>0.0842944771499038</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7838.36666666667</v>
+        <v>7567.73333333333</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>189.427173401781</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>18</v>
+        <v>231.198814776423</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>679.608116495474</v>
@@ -1247,12 +961,12 @@
         <v>148.304366279187</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>648.337687567612</v>
@@ -1273,12 +987,12 @@
         <v>278.354163306183</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>650.346910452914</v>
@@ -1299,12 +1013,12 @@
         <v>240.57501996235</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>638.50310258498</v>
@@ -1325,12 +1039,12 @@
         <v>188.301436623523</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>638.298234078137</v>
@@ -1351,7 +1065,7 @@
         <v>168.844089137825</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1377,15 +1091,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="B19:G19 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.55"/>
@@ -1426,150 +1140,231 @@
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="5" t="n">
+        <v>701.659862405139</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>9.18995548906088</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.819941234525401</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.127197422297423</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>7315.13333333333</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>268.606715880471</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>690.316642584705</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>5.09569061150213</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1.51558441528788</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.0434081716051809</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>7704.13333333333</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>160.905998116556</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>681.443967454141</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>7.44719659939602</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.795111809087838</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.0928475380683251</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7122.76666666667</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>210.511803802613</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>670.643227835885</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>5.08305469020254</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.51509663270907</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.029487248113253</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>7785.66666666667</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>109.643099169087</v>
+      </c>
       <c r="I5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>657.214387816084</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.1248031458393</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.864167829245341</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.0884198589230534</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12066.2</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>377.929513588684</v>
+      </c>
       <c r="I6" s="0" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>654.258183564934</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>5.45299171474816</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.875517355072015</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.128496673599898</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>12118.4</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>318.971796396722</v>
+      </c>
       <c r="I7" s="0" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>645.623387916423</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>3.7225149251116</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.56095304123085</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.0571902617483014</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>12405.5666666667</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>205.04863734773</v>
+      </c>
       <c r="I8" s="0" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>641.319351402496</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.97748222793267</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.51426322903118</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.0348286683204285</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12274.1333333333</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>278.100296139079</v>
+      </c>
       <c r="I9" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="I11" s="0" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="I12" s="0" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>37</v>
+      <c r="A13" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1577,78 +1372,161 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="I13" s="0" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>683.083053946819</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>5.47662109662991</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.804277993620421</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.113794061664617</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7209.33333333333</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>238.288919581676</v>
+      </c>
       <c r="I14" s="0" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>673.680786031581</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.39506104536877</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.51792953097305</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.0377037350222299</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7726</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>132.994425602652</v>
+      </c>
       <c r="I15" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>644.536607898239</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>4.48319573884298</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.75830849213116</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.283002397817698</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>15851.6333333333</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>348.816766772484</v>
+      </c>
       <c r="I16" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>651.518116450306</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>5.63516804632926</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1.0550303225473</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.121085791175466</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>14720.2333333333</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>300.730224314238</v>
+      </c>
       <c r="I17" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>631.824167855627</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.45756503899333</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.72181114504017</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.0690845860245454</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>16405.7333333333</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>363.537308556692</v>
+      </c>
       <c r="I18" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>630.499845144583</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>3.93066496100207</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1.81718685586179</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.0826609194588237</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>16125.6666666667</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>425.414145747763</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1667,10 +1545,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1715,150 +1593,231 @@
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="5" t="n">
+        <v>705.702253147439</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>9.68404818940365</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.821239254571295</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.100869592407061</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>7656</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>263.39232570707</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>685.767942467961</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>5.18465889508604</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1.22559505191707</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.0349205019476648</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>8136.13333333333</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>138.155767494354</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>680.499047121996</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>6.45708335815417</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.816643498579925</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.0928056439028141</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7417.66666666667</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>245.616933782912</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>663.777638219425</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>4.74113315633639</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.22845260112422</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.0323346071715277</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>7917.33333333333</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>158.8893202577</v>
+      </c>
       <c r="I5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>658.093459071905</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.41818321339589</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.862060541903684</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.0922823551480239</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12847.0333333333</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>256.91531991922</v>
+      </c>
       <c r="I6" s="0" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>655.908639555483</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>8.24244590346037</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.869372923977378</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.103949604860571</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>12759.3666666667</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>291.559479154867</v>
+      </c>
       <c r="I7" s="0" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>636.979309679748</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>3.71196071804063</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.2633466573166</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.0381897359051988</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>13026.0666666667</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>220.391490750896</v>
+      </c>
       <c r="I8" s="0" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>635.56458534592</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.12432185069266</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.24477066314503</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.027134236584342</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13150.3666666667</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>191.848087052613</v>
+      </c>
       <c r="I9" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="I11" s="0" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="I12" s="0" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>37</v>
+      <c r="A13" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1866,78 +1825,161 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="I13" s="0" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>683.759399288893</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>8.96183173442419</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.816479919006551</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.129011760558892</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7595.73333333333</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>247.927399458589</v>
+      </c>
       <c r="I14" s="0" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>665.095773048703</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.04548915362757</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.24061634886187</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.039727852913794</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8055.6</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>123.744898884762</v>
+      </c>
       <c r="I15" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>643.503741442002</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>6.49751635583944</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.80213711940654</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.235427657158454</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>16905.9</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>381.942887046633</v>
+      </c>
       <c r="I16" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>647.71917811678</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>6.44679681089673</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1.31248497374278</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.203628097684703</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>17470.9333333333</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>316.097969681524</v>
+      </c>
       <c r="I17" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>627.888238288662</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>2.99857411299556</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.53342243988709</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.0608674301029296</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>17232.4</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>250.862594619665</v>
+      </c>
       <c r="I18" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>623.263378630876</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>3.54079643237058</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1.81137401013906</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.0736117864621374</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>16503.1333333333</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>304.44349833452</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1949,349 +1991,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I37"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.14"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>750.126609115248</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>11.5846870808802</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.745037237135509</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.0920668157756103</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>5551.56666666667</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>366.508755442611</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>613.897109257333</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>6.52796623664085</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0.736311206998191</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0.0588669433218257</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>7626.83333333333</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>449.764542486578</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>515.3024135604</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>5.39900510492276</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0.721001099135071</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0.070574600144343</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>10045.1</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>275.238122610097</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>442.264149117117</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>3.5431317124402</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0.781737923836742</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0.114779812153669</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>12124.4333333333</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>430.65240670673</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>389.43686828644</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>2.92911627651827</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>0.731091852913341</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0.0569869549839867</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>14364.5666666667</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>389.249825223829</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>348.733413416514</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>2.31980403944863</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>0.75337051644183</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>0.0691737314815232</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>16400.6333333333</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>307.962994119629</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>314.528723367342</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>2.24149561423635</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>0.73813011652577</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0.0937343885539164</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>18589.4333333333</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>364.023747172828</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5" t="n">
-        <v>737.610560432191</v>
-      </c>
-      <c r="C33" s="5" t="n">
-        <v>5.11849674135898</v>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>0.951173783868661</v>
-      </c>
-      <c r="E33" s="5" t="n">
-        <v>0.0394270108837469</v>
-      </c>
-      <c r="F33" s="5" t="n">
-        <v>6179</v>
-      </c>
-      <c r="G33" s="5" t="n">
-        <v>230.50424485582</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="5" t="n">
-        <v>719.604632247391</v>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>5.16763211147452</v>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>0.965901382405173</v>
-      </c>
-      <c r="E34" s="5" t="n">
-        <v>0.0456609634958018</v>
-      </c>
-      <c r="F34" s="5" t="n">
-        <v>6150.96666666667</v>
-      </c>
-      <c r="G34" s="5" t="n">
-        <v>199.506370710369</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="5" t="n">
-        <v>637.638432557731</v>
-      </c>
-      <c r="C35" s="5" t="n">
-        <v>7.11694350070565</v>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>0.928812432516881</v>
-      </c>
-      <c r="E35" s="5" t="n">
-        <v>0.0466280794721949</v>
-      </c>
-      <c r="F35" s="5" t="n">
-        <v>7888.4</v>
-      </c>
-      <c r="G35" s="5" t="n">
-        <v>1209.49501003946</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="5" t="n">
-        <v>637.034262203171</v>
-      </c>
-      <c r="C36" s="5" t="n">
-        <v>7.64142275678719</v>
-      </c>
-      <c r="D36" s="5" t="n">
-        <v>0.928735344259865</v>
-      </c>
-      <c r="E36" s="5" t="n">
-        <v>0.0556302478115707</v>
-      </c>
-      <c r="F36" s="5" t="n">
-        <v>7735.06666666667</v>
-      </c>
-      <c r="G36" s="5" t="n">
-        <v>1239.61434306813</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="5" t="n">
-        <v>612.565931392732</v>
-      </c>
-      <c r="C37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="5" t="n">
-        <v>0.799996399991914</v>
-      </c>
-      <c r="E37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5" t="n">
-        <v>4461</v>
-      </c>
-      <c r="G37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>